--- a/PROJETO DE TESTES/[Projeto AeroFree] Planilha de resultados dos testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Planilha de resultados dos testes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="-60" windowWidth="20730" windowHeight="11820" tabRatio="601"/>
+    <workbookView xWindow="1215" yWindow="-60" windowWidth="19440" windowHeight="11820" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Equipe:</t>
   </si>
@@ -41,13 +41,82 @@
   </si>
   <si>
     <t>Sistema: AeroFree</t>
+  </si>
+  <si>
+    <t>CAS DE TESTE</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>OBSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>CT001</t>
+  </si>
+  <si>
+    <t>CT002</t>
+  </si>
+  <si>
+    <t>CT003</t>
+  </si>
+  <si>
+    <t>CT004</t>
+  </si>
+  <si>
+    <t>CT005</t>
+  </si>
+  <si>
+    <t>CT006</t>
+  </si>
+  <si>
+    <t>CT007</t>
+  </si>
+  <si>
+    <t>CT008</t>
+  </si>
+  <si>
+    <t>CT009</t>
+  </si>
+  <si>
+    <t>CT010</t>
+  </si>
+  <si>
+    <t>CT011</t>
+  </si>
+  <si>
+    <t>CT012</t>
+  </si>
+  <si>
+    <t>CT013</t>
+  </si>
+  <si>
+    <t>CT014</t>
+  </si>
+  <si>
+    <t>CT015</t>
+  </si>
+  <si>
+    <t>CT016</t>
+  </si>
+  <si>
+    <t>CT017</t>
+  </si>
+  <si>
+    <t>PASSOU</t>
+  </si>
+  <si>
+    <t>NÃO PASSOU</t>
+  </si>
+  <si>
+    <t>Erro nas validaçõe do campo CPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -70,8 +139,18 @@
       <sz val="12"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +169,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -263,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -297,6 +382,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:G17"/>
     </sheetView>
   </sheetViews>
@@ -1107,17 +1194,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/PROJETO DE TESTES/[Projeto AeroFree] Planilha de resultados dos testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Planilha de resultados dos testes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Equipe:</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>Erro nas validaçõe do campo CPS</t>
+  </si>
+  <si>
+    <t>MELHORIAS</t>
+  </si>
+  <si>
+    <t>Erro e CPFs repetidos</t>
+  </si>
+  <si>
+    <t>Erros nos cadastros dos passageiros</t>
   </si>
 </sst>
 </file>
@@ -376,14 +385,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,11 +922,11 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="14"/>
       <c r="I13" s="4"/>
       <c r="J13" s="8"/>
@@ -926,9 +935,9 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="14"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
@@ -948,11 +957,11 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="14"/>
       <c r="I16" s="4"/>
       <c r="J16" s="8"/>
@@ -961,9 +970,9 @@
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="14"/>
       <c r="I17" s="4"/>
       <c r="J17" s="8"/>
@@ -1197,7 +1206,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,130 +1217,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
+      <c r="B12" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
+      <c r="B13" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="B14" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
+      <c r="B15" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="B16" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="B17" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="B18" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PROJETO DE TESTES/[Projeto AeroFree] Planilha de resultados dos testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Planilha de resultados dos testes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="-60" windowWidth="19440" windowHeight="11820" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="1215" yWindow="-60" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Equipe:</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Sistema: AeroFree</t>
   </si>
   <si>
-    <t>CAS DE TESTE</t>
-  </si>
-  <si>
     <t>RESULTADO</t>
   </si>
   <si>
@@ -109,7 +106,19 @@
     <t>NÃO PASSOU</t>
   </si>
   <si>
-    <t>Erro nas validaçõe do campo CPS</t>
+    <t>Erro nas validações do campo CPF</t>
+  </si>
+  <si>
+    <t>CASOS DE TESTES</t>
+  </si>
+  <si>
+    <t>Os dados foram coletados com sucesso</t>
+  </si>
+  <si>
+    <t>Não envia a mensagem de comprovante do check-in</t>
+  </si>
+  <si>
+    <t>Os dados que foram inseridos no cpf, no fim informa que o passageiro não foi encontrado e os dados no número da passagem não faz nada</t>
   </si>
 </sst>
 </file>
@@ -150,7 +159,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,7 +180,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -376,14 +409,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,11 +951,11 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="14"/>
       <c r="I13" s="4"/>
       <c r="J13" s="8"/>
@@ -926,9 +964,9 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="14"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
@@ -948,11 +986,11 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="14"/>
       <c r="I16" s="4"/>
       <c r="J16" s="8"/>
@@ -961,9 +999,9 @@
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="14"/>
       <c r="I17" s="4"/>
       <c r="J17" s="8"/>
@@ -1197,141 +1235,175 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="B2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="C3" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="B4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="24"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="B5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="C7" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="B9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="24"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PROJETO DE TESTES/[Projeto AeroFree] Planilha de resultados dos testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Planilha de resultados dos testes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Equipe:</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Os dados que foram inseridos no cpf, no fim informa que o passageiro não foi encontrado e os dados no número da passagem não faz nada</t>
+  </si>
+  <si>
+    <t>MELHORIA</t>
+  </si>
+  <si>
+    <t>Consegue realizar duas vompras a mesmo tempo do mesmo passageiro para o mesmo local</t>
+  </si>
+  <si>
+    <t>Não distingue entra masculino e feminino</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1244,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1334,9 @@
       <c r="B8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
@@ -1334,69 +1345,89 @@
       <c r="B9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
